--- a/Output/Bol.com_2022-08-19.xlsx
+++ b/Output/Bol.com_2022-08-19.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:U1"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +541,5477 @@
           <t>stock</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>cat_link</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>price_original</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15:16:05.869103</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9300000031695864</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>HP Chromebook 14b-na0700nd - 14 Inch - Grijs</t>
+        </is>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-chromebook-14b-na0700nd-14-inch-grijs/9300000031695864/</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>239.-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15:16:05.900449</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9300000050062002</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>HP ENVY 17-ch1720nd - Laptop - 17.3 Inch</t>
+        </is>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-envy-17-ch1720nd-laptop-17-3-inch/9300000050062002/</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>12</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1099.-</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15:16:05.931829</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9300000050811374</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PSParts</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad 3 15IGL05 81WQ00H0MH - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-ideapad-3-15igl05-81wq00h0mh-laptop-15-6-inch/9300000050811374/</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Voor 16:00 uur besteld, dinsdag in huis</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>252.-</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15:16:05.969103</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9300000071777972</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4Allshop</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>ASUS TUF Dash F15 FX516PC-HN004W - Gaming laptop - 15.6 inch - 144 Hz</t>
+        </is>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-tuf-dash-f15-fx516pc-hn004w-gaming-laptop-15-6-inch-144-hz/9300000071777971/</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>7</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Uiterlijk 26 augustus in huis</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1230.-</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:16:06.005387</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9300000053698100</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>ASUS X515MA-BR715WS - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-x515ma-br715ws-laptop-15-6-inch/9300000053698100/</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>15</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>239.-</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>319,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15:16:06.039947</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9300000048152920</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>HP 15s-eq2721nd - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-15s-eq2721nd-laptop-15-6-inch/9300000048152920/</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>21</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>479.-</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>539,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15:16:06.071885</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9300000028605156</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>HP 15s-fq2711nd - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-15s-fq2711nd-laptop-15-6-inch/9300000028605156/</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>9</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>399.-</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>469,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15:16:06.107543</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9300000061847364</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Acer Aspire 3 A315-58-57F6 - laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/acer-aspire-3-a315-58-57f6-laptop-15-6-inch/9300000061847363/</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>489.-</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>549,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15:16:06.142806</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9300000069429754</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ASUS X515JA-EJ2136W - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-x515ja-ej2136w-laptop-15-6-inch/9300000069429754/</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>479.-</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>529,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15:16:06.175025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9300000039286682</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lenovo V15 82NB003LMH - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-v15-82nb003lmh-laptop-15-6-inch/9300000039286682/</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>499.-</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15:16:06.207104</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9300000071763088</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Resmart BV</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ASUS X415MA-EK665W - Laptop - 14 inch</t>
+        </is>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-x415ma-ek665w-laptop-14-inch/9300000071763088/</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Voor 16:00 uur besteld, dinsdag in huis</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>399.-</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15:16:06.243380</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9300000022025560</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lenovo Legion 5 82JU008DMH - Gaming laptop - 15.6 inch - 165 Hz</t>
+        </is>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-legion-5-82ju008dmh-gaming-laptop-15-6-inch-165-hz/9300000022025561/</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>1349.-</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15:16:06.283296</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9300000033691286</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Gaming 3 15ACH6 82K200L5MH - Gaming Laptop - 15.6 Inch</t>
+        </is>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-ideapad-gaming-3-15ach6-82k200l5mh-gaming-laptop-15-6-inch/9300000033691286/</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>13</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>779.-</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>859,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15:16:06.318708</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9300000048152912</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>HP 15s-eq2741nd - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-15s-eq2741nd-laptop-15-6-inch/9300000048152911/</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>21</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>649.-</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15:16:06.359764</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9300000048152916</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>HP 14s-fq0711nd - Laptop - 14 inch</t>
+        </is>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-14s-fq0711nd-laptop-14-inch/9300000048152917/</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>18</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>329.-</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C17" t="n">
+        <v>33</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15:16:06.394399</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9300000018418962</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>HP 15s-fq2708nd - Laptop - 15.6 Inch</t>
+        </is>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-15s-fq2708nd-laptop-15-6-inch/9300000018418962/</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>9</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>499.-</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>549,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15:16:06.426412</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9300000048418948</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>HP Pavilion x360 14-dy0711nd - 2-in-1 laptop - 14 inch</t>
+        </is>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-pavilion-x360-14-dy0711nd-2-in-1-laptop-14-inch/9300000048418949/</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>529.-</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>649,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C19" t="n">
+        <v>33</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15:16:06.458416</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9300000061847388</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Acer Aspire 3 A315-58-58C5 - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/acer-aspire-3-a315-58-58c5-laptop-15-6-inch/9300000061847389/</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>629.-</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15:16:06.482582</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9300000050811386</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Flex 5 14ALC05 82HU00XNMH - 2-in-1 Laptop - 14 inch</t>
+        </is>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-ideapad-flex-5-14alc05-82hu00xnmh-2-in-1-laptop-14-inch/9300000050811386/</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>588.-</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>649,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15:16:06.514967</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9300000069429752</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>ASUS X515JA-EJ2148W - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-x515ja-ej2148w-laptop-15-6-inch/9300000069429751/</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>649.-</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15:16:06.549595</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9300000071777980</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ASUS ROG Strix G15 G513IH-HN008W - Gaming laptop - 15.6 inch - 144Hz</t>
+        </is>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-rog-strix-g15-g513ih-hn008w-gaming-laptop-15-6-inch-144hz/9300000071777980/</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>799.-</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15:16:06.586149</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9300000033691290</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad Flex 5 14ITL05 82HS00N3MH - 2-in-1 laptop - 14 inch</t>
+        </is>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-ideapad-flex-5-14itl05-82hs00n3mh-2-in-1-laptop-14-inch/9300000033691290/</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>649.-</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15:16:06.622495</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9300000058571518</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ASUS Vivobook 15 OLED K513EA-L12676W - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-vivobook-15-oled-k513ea-l12676w-laptop-15-6-inch/9300000058571518/</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>27</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>799.-</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>869,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C25" t="n">
+        <v>33</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15:16:06.652944</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9300000055734268</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Twizzo.nl</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>ASUS X415EA-EB851W -14 inch - laptop</t>
+        </is>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-x415ea-eb851w-14-inch-laptop/9300000055734268/</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>zijn</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Nu besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>679.-</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15:16:06.689702</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9300000051296784</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>ASUS X515EA-BQ1396W - Laptop - 15.6 inch</t>
+        </is>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/asus-x515ea-bq1396w-laptop-15-6-inch/9300000051296783/</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>29</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15:16:06.741654</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9300000018932052</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Acer Aspire 3 A317-52-56MK - Laptop - 17.3 inch</t>
+        </is>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/acer-aspire-3-a317-52-56mk-laptop-17-3-inch/9300000018932052/</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>549.-</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15:16:06.793016</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9300000006446434</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>HP Chromebook 14a-na0161nd - 14 inch</t>
+        </is>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-chromebook-14a-na0161nd-14-inch/9300000006446434/</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>15</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>229.-</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15:16:06.854219</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9300000048418952</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HP Pavilion x360 14-dy1702nd - 2-in-1 laptop - 14 inch</t>
+        </is>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/hp-pavilion-x360-14-dy1702nd-2-in-1-laptop-14-inch/9300000048418952/</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>729.-</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>829,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15:16:06.908885</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9300000033691280</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lenovo IdeaPad 3 17ITL6 82H900C4MH - Laptop - 17.3 Inch</t>
+        </is>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-ideapad-3-17itl6-82h900c4mh-laptop-17-3-inch/9300000033691279/</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>349.-</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/laptops/4770/</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16:12:37.262829</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>9200000124867927</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>LG 27GL63T Ultragear - Full HD IPS Gaming Monitor - 144Hz - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-27gl63t-ultragear-full-hd-ips-gaming-monitor-144hz-27-inch/9200000124867927/</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>189.-</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16:12:37.299088</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>9300000033078564</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>LG 34WP65C - QHD Curved Ultrawide Monitor - 160hz - 34 inch</t>
+        </is>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-34wp65c-qhd-curved-ultrawide-monitor-160hz-34-inch/9300000033078564/</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>393.-</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>419,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16:12:37.321173</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>9200000121257763</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Samsung LS24R350 - Full HD IPS Monitor - 24 Inch</t>
+        </is>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/samsung-ls24r350-full-hd-ips-monitor-24-inch/9200000121257763/</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>99.-</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>119,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16:12:37.362376</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>9300000023481302</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>CPS IT &amp; Electro</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>MSI Optix G27C6 - Full HD Curved Gaming Monitor - 165hz</t>
+        </is>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/msi-optix-g27c6-full-hd-curved-gaming-monitor-165hz/9300000023481302/</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Nu besteld, dinsdag in huis</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>179.55</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16:12:37.400969</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>9300000005468213</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>LG 27GN850 Ultragear - QHD Nano-IPS Gaming Monitor - 144hz - 27 inch</t>
+        </is>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-27gn850-ultragear-qhd-nano-ips-gaming-monitor-144hz-27-inch/9300000005468213/</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>299.-</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>329,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C36" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16:12:37.433593</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>9300000025689537</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lenovo L24i-30 - Full HD IPS Monitor - 24 inch</t>
+        </is>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lenovo-l24i-30-full-hd-ips-monitor-24-inch/9300000025689537/</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>119.-</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16:12:37.459465</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>9200000125003539</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Samsung LS24R650 - Full HD IPS Monitor - 24 Inch</t>
+        </is>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/samsung-ls24r650-full-hd-ips-monitor-24-inch/9200000125003539/</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>182.-</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C38" t="n">
+        <v>33</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16:12:37.495804</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>9300000001327686</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>MSI Optix G241 - Full HD IPS 144Hz Gaming Monitor - 24 Inch</t>
+        </is>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/msi-optix-g241-full-hd-ips-144hz-gaming-monitor-24-inch/9300000001327686/</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>234.-</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C39" t="n">
+        <v>33</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16:12:37.540747</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>9300000030168530</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Samsung Odyssey G5 2021 LC27G53TQWRXEN - QHD VA Curved 144Hz Gaming Monitor - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/samsung-odyssey-g5-2021-lc27g53tqwrxen-qhd-va-curved-144hz-gaming-monitor-27-inch/9300000030168530/</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Voor 23:59 besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>239.-</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>269,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C40" t="n">
+        <v>33</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16:12:37.573956</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>9300000011464947</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Samsung LF24T450FQU - Full HD IPS Monitor - 24 inch</t>
+        </is>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/samsung-lf24t450fqu-full-hd-ips-monitor-24-inch/9300000011464947/</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>159.-</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C41" t="n">
+        <v>33</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16:12:37.605090</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>9300000118651593</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ChiQ</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>chiq</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CHiQ 22P610FS - 21.5 Inch Full HD 75Hz Monitor - 100% sRGB - Anti Glare - Ultra Slim</t>
+        </is>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/chiq-22p610fs-21-5-inch-full-hd-75hz-monitor-100-srgb-anti-glare-ultra-slim/9300000118651593/</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16:12:37.637427</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>9300000033078570</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>LG 27GP850 Ultragear - QHD Nano IPS 165Hz Gaming Monitor - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-27gp850-ultragear-qhd-nano-ips-165hz-gaming-monitor-27-inch/9300000033078570/</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>349.-</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C43" t="n">
+        <v>33</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16:12:37.671158</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>9300000018308943</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Iiyama</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Iiyama G2770HSU-B1 - Full HD IPS 165Hz Gaming Monitor - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/iiyama-g2770hsu-b1-full-hd-ips-165hz-gaming-monitor-27-inch/9300000018308943/</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>179.-</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>229,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C44" t="n">
+        <v>33</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16:12:37.711347</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>9300000005468217</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>LG Ergo 32UN88A - 4K IPS USB-C Monitor - 60w - 32 Inch</t>
+        </is>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-ergo-32un88a-4k-ips-usb-c-monitor-60w-32-inch/9300000005468217/</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>609.-</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>649,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C45" t="n">
+        <v>33</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16:12:37.742824</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>9300000033078563</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>LG 32GP850 - QHD Nano-IPS 165Hz Gaming Monitor - 32 Inch</t>
+        </is>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-32gp850-qhd-nano-ips-165hz-gaming-monitor-32-inch/9300000033078563/</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>399.-</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>449,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C46" t="n">
+        <v>33</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16:12:37.775661</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>9200000123494764</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>MSI Optix G27C4 - Full HD VA Curved 165Hz Gaming Monitor - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/msi-optix-g27c4-full-hd-va-curved-165hz-gaming-monitor-27-inch/9200000123494764/</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Voor 23:59 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>189.-</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C47" t="n">
+        <v>33</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16:12:37.819016</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>9300000040121580</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Ziza</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Dell P2422H - Full HD IPS Monitor - 24 Inch</t>
+        </is>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/dell-p2422h-full-hd-ips-monitor-24-inch/9300000040121580/</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Voor 17:00 uur besteld, dinsdag in huis</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>194.95</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C48" t="n">
+        <v>33</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16:12:37.851732</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>9300000005468214</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>LG 35WN73A - QHD VA Curved UltraWide Monitor – USB-C - 35 Inch</t>
+        </is>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-35wn73a-qhd-va-curved-ultrawide-monitor-usb-c-35-inch/9300000005468214/</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>419.-</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>489,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C49" t="n">
+        <v>33</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16:12:37.864835</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>9300000058758741</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Philips 24M1N3200VS - Full HD VA Gaming Monitor - 165hz - 24 inch</t>
+        </is>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/philips-24m1n3200vs-full-hd-va-gaming-monitor-165hz-24-inch/9300000058758741/</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>159.-</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16:12:37.897360</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>19</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>9300000016569237</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Tones</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>MSI Optix G24C6 - Full HD Gaming Monitor</t>
+        </is>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/msi-optix-g24c6-full-hd-gaming-monitor/9300000016569237/</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Voor 21:30 uur besteld, maandag in huis</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>189.-</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C51" t="n">
+        <v>33</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16:12:37.917270</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>20</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>9300000032980575</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>LG 29WP500 - Full HD IPS UltraWide Monitor - 29 Inch</t>
+        </is>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-29wp500-full-hd-ips-ultrawide-monitor-29-inch/9300000032980575/</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>188.-</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C52" t="n">
+        <v>33</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16:12:37.951722</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>21</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>9300000035219367</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Hardware-Expert.nl</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Acer Nitro KG2 KG272 68,6 cm (27") 1920 x 1080 Pixels Full HD LED Zwart</t>
+        </is>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/acer-nitro-kg2-kg272-68-6-cm-1920-x-1080-pixels-full-hd-led-zwart/9300000035219367/</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>zijn</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Nu besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>169.-</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C53" t="n">
+        <v>33</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16:12:37.985851</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>22</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>9300000033854939</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>LG 27GP950 - 4K Gaming Monitor - HDMI 2.1 - Nano IPS - 160hz</t>
+        </is>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-27gp950-4k-gaming-monitor-hdmi-2-1-nano-ips-160hz/9300000033854939/</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>699.-</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C54" t="n">
+        <v>33</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16:12:38.029558</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>23</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>9300000030168524</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Samsung Odyssey G5 2021 LC32G53TQWRXEN - QHD VA Curved 144Hz Gaming Monitor - 32 Inch</t>
+        </is>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/samsung-odyssey-g5-2021-lc32g53tqwrxen-qhd-va-curved-144hz-gaming-monitor-32-inch/9300000030168524/</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>279.-</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>329,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C55" t="n">
+        <v>33</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>16:12:38.066248</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>24</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9200000104161889</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Hardware-Expert.nl</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>LG 27UL500 - 4K IPS Monitor - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-27ul500-4k-ips-monitor-27-inch/9200000104161889/</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Nu besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>259.-</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C56" t="n">
+        <v>33</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16:12:38.103108</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>25</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>9300000057837422</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>MSI Optix G271C - Full HD Curved 165Hz Gaming Monitor - 27 Inch</t>
+        </is>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/msi-optix-g271c-full-hd-curved-165hz-gaming-monitor-27-inch/9300000057837422/</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>329.-</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C57" t="n">
+        <v>33</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16:12:38.146681</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>26</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>9300000033854940</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>LG 34WP75C-B - QHD VA USB-C Curved Monitor - 65w - 34 Inch</t>
+        </is>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-34wp75c-b-qhd-va-usb-c-curved-monitor-65w-34-inch/9300000033854940/</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>429.-</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>44792</v>
+      </c>
+      <c r="C58" t="n">
+        <v>33</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>16:12:38.184214</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Monitoren</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>27</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>9300000005468214</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>bol.com</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>LG</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>LG 35WN73A - QHD VA Curved UltraWide Monitor – USB-C - 35 Inch</t>
+        </is>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>/nl/nl/p/lg-35wn73a-qhd-va-curved-ultrawide-monitor-usb-c-35-inch/9300000005468214/</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Voor 23:00 uur besteld, morgen in huis</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>419.-</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>489,00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output/Bol.com_2022-08-19.xlsx
+++ b/Output/Bol.com_2022-08-19.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3087,7 +3084,7 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C31" t="n">
@@ -3108,26 +3105,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>9200000124867927</t>
-        </is>
+      <c r="K31" t="n">
+        <v>9200000124867928</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -3157,10 +3144,8 @@
           <t>4,8</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
+      <c r="R31" t="n">
+        <v>192</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3172,10 +3157,8 @@
           <t>189.-</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
+      <c r="U31" t="n">
+        <v>237</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3192,7 +3175,7 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C32" t="n">
@@ -3213,26 +3196,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>9300000033078564</t>
-        </is>
+      <c r="K32" t="n">
+        <v>9300000033078564</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3262,10 +3235,8 @@
           <t>4,4</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="R32" t="n">
+        <v>17</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3277,10 +3248,8 @@
           <t>393.-</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="U32" t="n">
+        <v>42</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3297,7 +3266,7 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C33" t="n">
@@ -3318,26 +3287,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>9200000121257763</t>
-        </is>
+      <c r="K33" t="n">
+        <v>9200000121257764</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3367,10 +3326,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
+      <c r="R33" t="n">
+        <v>104</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3382,10 +3339,8 @@
           <t>99.-</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
+      <c r="U33" t="n">
+        <v>500</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3402,7 +3357,7 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C34" t="n">
@@ -3423,26 +3378,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>9300000023481302</t>
-        </is>
+      <c r="K34" t="n">
+        <v>9300000023481302</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3472,10 +3417,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
+      <c r="R34" t="n">
+        <v>245</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3487,10 +3430,8 @@
           <t>179.55</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="U34" t="n">
+        <v>40</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3507,7 +3448,7 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C35" t="n">
@@ -3528,26 +3469,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>9300000005468213</t>
-        </is>
+      <c r="K35" t="n">
+        <v>9300000005468212</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3577,10 +3508,8 @@
           <t>4,8</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
+      <c r="R35" t="n">
+        <v>192</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3592,10 +3521,8 @@
           <t>299.-</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="U35" t="n">
+        <v>210</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3612,7 +3539,7 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C36" t="n">
@@ -3633,26 +3560,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>9300000025689537</t>
-        </is>
+      <c r="K36" t="n">
+        <v>9300000025689536</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3682,10 +3599,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="R36" t="n">
+        <v>7</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3703,17 +3618,13 @@
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C37" t="n">
@@ -3734,26 +3645,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>6</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>9200000125003539</t>
-        </is>
+      <c r="K37" t="n">
+        <v>9200000125003540</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3783,10 +3684,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
+      <c r="R37" t="n">
+        <v>149</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3804,17 +3703,13 @@
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C38" t="n">
@@ -3835,26 +3730,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>7</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>9300000001327686</t>
-        </is>
+      <c r="K38" t="n">
+        <v>9300000001327686</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3884,10 +3769,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
+      <c r="R38" t="n">
+        <v>121</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3899,27 +3782,21 @@
           <t>234.-</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="U38" t="n">
+        <v>210</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C39" t="n">
@@ -3940,26 +3817,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>8</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>9300000030168530</t>
-        </is>
+      <c r="K39" t="n">
+        <v>9300000030168530</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3989,10 +3856,8 @@
           <t>4,5</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="R39" t="n">
+        <v>82</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4004,10 +3869,8 @@
           <t>239.-</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="U39" t="n">
+        <v>94</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -4024,7 +3887,7 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C40" t="n">
@@ -4045,26 +3908,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>9</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>9300000011464947</t>
-        </is>
+      <c r="K40" t="n">
+        <v>9300000011464948</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -4094,10 +3947,8 @@
           <t>4,6</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="R40" t="n">
+        <v>35</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4109,10 +3960,8 @@
           <t>159.-</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>335</t>
-        </is>
+      <c r="U40" t="n">
+        <v>335</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -4129,7 +3978,7 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C41" t="n">
@@ -4150,26 +3999,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>10</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>9300000118651593</t>
-        </is>
+      <c r="K41" t="n">
+        <v>9300000118651592</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -4199,10 +4038,8 @@
           <t>4,1</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="R41" t="n">
+        <v>26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4214,27 +4051,21 @@
           <t>109.99</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="U41" t="n">
+        <v>35</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C42" t="n">
@@ -4255,26 +4086,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>11</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>9300000033078570</t>
-        </is>
+      <c r="K42" t="n">
+        <v>9300000033078570</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4304,10 +4125,8 @@
           <t>4,8</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
+      <c r="R42" t="n">
+        <v>192</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4319,27 +4138,21 @@
           <t>349.-</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="U42" t="n">
+        <v>5</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C43" t="n">
@@ -4360,26 +4173,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>12</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>9300000018308943</t>
-        </is>
+      <c r="K43" t="n">
+        <v>9300000018308944</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4409,10 +4212,8 @@
           <t>4,6</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
+      <c r="R43" t="n">
+        <v>455</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4424,10 +4225,8 @@
           <t>179.-</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="U43" t="n">
+        <v>41</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4444,7 +4243,7 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C44" t="n">
@@ -4465,26 +4264,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>13</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>9300000005468217</t>
-        </is>
+      <c r="K44" t="n">
+        <v>9300000005468216</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4514,10 +4303,8 @@
           <t>4,6</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="R44" t="n">
+        <v>48</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4529,10 +4316,8 @@
           <t>609.-</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
+      <c r="U44" t="n">
+        <v>126</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4549,7 +4334,7 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C45" t="n">
@@ -4570,26 +4355,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>14</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>9300000033078563</t>
-        </is>
+      <c r="K45" t="n">
+        <v>9300000033078564</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -4619,10 +4394,8 @@
           <t>4,8</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
+      <c r="R45" t="n">
+        <v>192</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4634,10 +4407,8 @@
           <t>399.-</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="U45" t="n">
+        <v>36</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4654,7 +4425,7 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C46" t="n">
@@ -4675,26 +4446,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>15</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>9200000123494764</t>
-        </is>
+      <c r="K46" t="n">
+        <v>9200000123494764</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4724,10 +4485,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
+      <c r="R46" t="n">
+        <v>245</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4739,10 +4498,8 @@
           <t>189.-</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
+      <c r="U46" t="n">
+        <v>500</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4759,7 +4516,7 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C47" t="n">
@@ -4780,26 +4537,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>16</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>9300000040121580</t>
-        </is>
+      <c r="K47" t="n">
+        <v>9300000040121580</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -4829,10 +4576,8 @@
           <t>5,0</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="R47" t="n">
+        <v>1</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4844,10 +4589,8 @@
           <t>194.95</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="U47" t="n">
+        <v>8</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4864,7 +4607,7 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C48" t="n">
@@ -4885,26 +4628,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>17</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>9300000005468214</t>
-        </is>
+      <c r="K48" t="n">
+        <v>9300000005468214</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -4934,10 +4667,8 @@
           <t>4,6</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="R48" t="n">
+        <v>21</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4949,10 +4680,8 @@
           <t>419.-</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="U48" t="n">
+        <v>24</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4969,7 +4698,7 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C49" t="n">
@@ -4990,26 +4719,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>18</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>9300000058758741</t>
-        </is>
+      <c r="K49" t="n">
+        <v>9300000058758740</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -5039,10 +4758,8 @@
           <t>5,0</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="R49" t="n">
+        <v>5</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -5054,27 +4771,21 @@
           <t>159.-</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="U49" t="n">
+        <v>77</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C50" t="n">
@@ -5095,26 +4806,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>19</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>9300000016569237</t>
-        </is>
+      <c r="K50" t="n">
+        <v>9300000016569236</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -5144,10 +4845,8 @@
           <t>4,6</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="R50" t="n">
+        <v>13</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5159,27 +4858,21 @@
           <t>189.-</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="U50" t="n">
+        <v>34</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C51" t="n">
@@ -5200,26 +4893,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>20</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>9300000032980575</t>
-        </is>
+      <c r="K51" t="n">
+        <v>9300000032980576</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -5249,10 +4932,8 @@
           <t>4,7</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="R51" t="n">
+        <v>110</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5264,27 +4945,21 @@
           <t>188.-</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
+      <c r="U51" t="n">
+        <v>189</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C52" t="n">
@@ -5305,26 +4980,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>21</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>9300000035219367</t>
-        </is>
+      <c r="K52" t="n">
+        <v>9300000035219368</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -5354,11 +5019,7 @@
           <t>zijn</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
           <t>Nu besteld, morgen in huis</t>
@@ -5369,27 +5030,21 @@
           <t>169.-</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="U52" t="n">
+        <v>4</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C53" t="n">
@@ -5410,26 +5065,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>22</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>9300000033854939</t>
-        </is>
+      <c r="K53" t="n">
+        <v>9300000033854940</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -5459,10 +5104,8 @@
           <t>4,8</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
+      <c r="R53" t="n">
+        <v>192</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5474,10 +5117,8 @@
           <t>699.-</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
+      <c r="U53" t="n">
+        <v>147</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5494,7 +5135,7 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C54" t="n">
@@ -5515,26 +5156,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>23</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>9300000030168524</t>
-        </is>
+      <c r="K54" t="n">
+        <v>9300000030168524</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -5564,10 +5195,8 @@
           <t>4,5</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="R54" t="n">
+        <v>82</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5579,10 +5208,8 @@
           <t>279.-</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
+      <c r="U54" t="n">
+        <v>217</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5599,7 +5226,7 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C55" t="n">
@@ -5620,26 +5247,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>24</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>9200000104161889</t>
-        </is>
+      <c r="K55" t="n">
+        <v>9200000104161888</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -5669,10 +5286,8 @@
           <t>4,5</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+      <c r="R55" t="n">
+        <v>78</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5692,17 +5307,13 @@
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C56" t="n">
@@ -5723,26 +5334,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>25</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>9300000057837422</t>
-        </is>
+      <c r="K56" t="n">
+        <v>9300000057837422</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -5772,10 +5373,8 @@
           <t>5,0</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="R56" t="n">
+        <v>1</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5787,27 +5386,21 @@
           <t>329.-</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="U56" t="n">
+        <v>1</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C57" t="n">
@@ -5828,26 +5421,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>26</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>9300000033854940</t>
-        </is>
+      <c r="K57" t="n">
+        <v>9300000033854940</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -5877,10 +5460,8 @@
           <t>4,4</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="R57" t="n">
+        <v>17</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5892,27 +5473,21 @@
           <t>429.-</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
+      <c r="U57" t="n">
+        <v>149</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
           <t>https://bol.com/nl/nl/l/monitoren/10460/</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="C58" t="n">
@@ -5933,26 +5508,16 @@
           <t>Monitoren</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>27</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>9300000005468214</t>
-        </is>
+      <c r="K58" t="n">
+        <v>9300000005468214</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -5982,10 +5547,8 @@
           <t>4,6</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="R58" t="n">
+        <v>21</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5997,10 +5560,8 @@
           <t>419.-</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="U58" t="n">
+        <v>24</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
